--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/DE/10/seed5/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.814</v>
+        <v>16.432</v>
       </c>
     </row>
     <row r="4">
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.144</v>
+        <v>-7.328999999999999</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.132</v>
+        <v>16.994</v>
       </c>
     </row>
     <row r="15">
@@ -882,7 +882,7 @@
         <v>-9.31</v>
       </c>
       <c r="E26" t="n">
-        <v>17.048</v>
+        <v>16.756</v>
       </c>
     </row>
     <row r="27">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.948</v>
+        <v>17.12</v>
       </c>
     </row>
     <row r="32">
@@ -981,7 +981,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.992</v>
+        <v>-8.052000000000001</v>
       </c>
       <c r="E32" t="n">
         <v>15.18</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.344</v>
+        <v>16.63</v>
       </c>
     </row>
     <row r="36">
@@ -1049,7 +1049,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.758000000000001</v>
+        <v>-7.783999999999999</v>
       </c>
       <c r="E36" t="n">
         <v>15.99</v>
@@ -1069,7 +1069,7 @@
         <v>-7.88</v>
       </c>
       <c r="E37" t="n">
-        <v>16.554</v>
+        <v>16.737</v>
       </c>
     </row>
     <row r="38">
@@ -1083,7 +1083,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.65</v>
+        <v>-7.662000000000001</v>
       </c>
       <c r="E38" t="n">
         <v>15.23</v>
@@ -1205,7 +1205,7 @@
         <v>-7.87</v>
       </c>
       <c r="E45" t="n">
-        <v>17.098</v>
+        <v>16.96</v>
       </c>
     </row>
     <row r="46">
@@ -1219,7 +1219,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.74</v>
+        <v>-8.263000000000002</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1355,7 +1355,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.837999999999999</v>
+        <v>-8.494</v>
       </c>
       <c r="E54" t="n">
         <v>15.77</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.018000000000001</v>
+        <v>-8.129000000000001</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.668</v>
+        <v>16.643</v>
       </c>
     </row>
     <row r="58">
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.236</v>
+        <v>-7.467999999999999</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1610,7 +1610,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.529999999999999</v>
+        <v>-7.555</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1661,7 +1661,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.720000000000001</v>
+        <v>-7.595000000000001</v>
       </c>
       <c r="E72" t="n">
         <v>17.18</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.931999999999999</v>
+        <v>-7.279000000000001</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2120,7 +2120,7 @@
         <v>-15.77</v>
       </c>
       <c r="D99" t="n">
-        <v>-7.488</v>
+        <v>-8.019</v>
       </c>
       <c r="E99" t="n">
         <v>16.01</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.47</v>
+        <v>16.749</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.634</v>
+        <v>16.669</v>
       </c>
     </row>
   </sheetData>
